--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evil COre\PycharmProjects\YLab_home_works\first_week\menu_app\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,114 +24,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Меню</t>
   </si>
   <si>
+    <t>Холодные закуски</t>
+  </si>
+  <si>
+    <t>К пиву</t>
+  </si>
+  <si>
+    <t>Сельдь Бисмарк</t>
+  </si>
+  <si>
+    <t>Традиционное немецкое блюдо из маринованной сельди</t>
+  </si>
+  <si>
+    <t>Мясная тарелка</t>
+  </si>
+  <si>
+    <t>Рыбная тарелка</t>
+  </si>
+  <si>
+    <t>Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
+  </si>
+  <si>
+    <t>Рамен</t>
+  </si>
+  <si>
+    <t>Горячий рамен</t>
+  </si>
+  <si>
+    <t>Дайзу рамен</t>
+  </si>
+  <si>
+    <t>Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
+  </si>
+  <si>
+    <t>Унаги рамен</t>
+  </si>
+  <si>
+    <t>Рамен на нежном сливочном рыбном бульоне, с добавлением маринованного угря, грибов муэр, кунжута, зеленого лука</t>
+  </si>
+  <si>
+    <t>Чиизу Рамен</t>
+  </si>
+  <si>
+    <t>Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
+  </si>
+  <si>
+    <t>Алкогольное меню</t>
+  </si>
+  <si>
+    <t>Алкогольные напитки</t>
+  </si>
+  <si>
+    <t>Красные вина</t>
+  </si>
+  <si>
+    <t>Для романтичного вечера</t>
+  </si>
+  <si>
+    <t>Шемен де Пап ля Ноблесс</t>
+  </si>
+  <si>
+    <t>Вино красное — фруктовое, среднетелое, выдержанное в дубе</t>
+  </si>
+  <si>
+    <t>Рипароссо Монтепульчано</t>
+  </si>
+  <si>
+    <t>Вино красное, сухое</t>
+  </si>
+  <si>
+    <t>Кьянти, Серристори</t>
+  </si>
+  <si>
+    <t>Вино красное — элегантное, комплексное, не выдержанное в дубе</t>
+  </si>
+  <si>
+    <t>Виски</t>
+  </si>
+  <si>
+    <t>Для интересных бесед</t>
+  </si>
+  <si>
+    <t>Джемисон</t>
+  </si>
+  <si>
+    <t>Классический купажированный виски, проходящий 4-хлетнюю выдержку в дубовых бочках</t>
+  </si>
+  <si>
+    <t>Джек Дэниелс</t>
+  </si>
+  <si>
+    <t>Характерен мягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
+  </si>
+  <si>
+    <t>Чивас Ригал</t>
+  </si>
+  <si>
+    <t>Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
+  </si>
+  <si>
+    <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
+  </si>
+  <si>
+    <t>34e43b6c-e30c-41e6-b07e-e6956202645f</t>
+  </si>
+  <si>
+    <t>a1d01c3f-3a3f-44ee-b812-83f80fca6829</t>
+  </si>
+  <si>
+    <t>00e35cd8-8375-46f5-9ba8-4977a5a12b1d</t>
+  </si>
+  <si>
+    <t>a3b76915-0537-4ee7-9747-4f1e76ebdab0</t>
+  </si>
+  <si>
+    <t>484f9ac2-9faf-4637-a0cf-9d1da6bf598d</t>
+  </si>
+  <si>
+    <t>f19c96c6-da4c-438b-90d5-8af46e4c931d</t>
+  </si>
+  <si>
+    <t>1d02fefb-5570-4cf4-97fb-53e0ec0ee369</t>
+  </si>
+  <si>
+    <t>1daa0aeb-b717-4d11-b470-b34d9dc5962b</t>
+  </si>
+  <si>
+    <t>573279b9-8972-44cb-bc3e-737e1bf19c82</t>
+  </si>
+  <si>
+    <t>d76bbfb7-5e04-4c07-ba8f-0173f8cb322d</t>
+  </si>
+  <si>
+    <t>e4c52183-56e0-4d03-bc96-df309a2a9c6e</t>
+  </si>
+  <si>
+    <t>1ce596a2-da32-4de2-b938-821a2dda3f2d</t>
+  </si>
+  <si>
+    <t>90c224ee-5e33-49db-9038-b336cb39d136</t>
+  </si>
+  <si>
+    <t>f85969b1-e9e6-4216-98a7-2aa4170e3a30</t>
+  </si>
+  <si>
+    <t>b4736a03-c3ac-4609-9d52-a8e9941d970a</t>
+  </si>
+  <si>
+    <t>52084b95-5189-4a7b-bb28-b08d283e49ba</t>
+  </si>
+  <si>
+    <t>ba613d06-6543-4b97-8442-c5d06e43a00e</t>
+  </si>
+  <si>
+    <t>83cc91b6-5fba-4656-aaf5-c1b091894de0</t>
+  </si>
+  <si>
     <t>Основное меню</t>
-  </si>
-  <si>
-    <t>Холодные закуски</t>
-  </si>
-  <si>
-    <t>К пиву</t>
-  </si>
-  <si>
-    <t>Сельдь Бисмарк</t>
-  </si>
-  <si>
-    <t>Традиционное немецкое блюдо из маринованной сельди</t>
-  </si>
-  <si>
-    <t>Мясная тарелка</t>
-  </si>
-  <si>
-    <t>Рыбная тарелка</t>
-  </si>
-  <si>
-    <t>Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
-  </si>
-  <si>
-    <t>Рамен</t>
-  </si>
-  <si>
-    <t>Горячий рамен</t>
-  </si>
-  <si>
-    <t>Дайзу рамен</t>
-  </si>
-  <si>
-    <t>Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
-  </si>
-  <si>
-    <t>Унаги рамен</t>
-  </si>
-  <si>
-    <t>Рамен на нежном сливочном рыбном бульоне, с добавлением маринованного угря, грибов муэр, кунжута, зеленого лука</t>
-  </si>
-  <si>
-    <t>Чиизу Рамен</t>
-  </si>
-  <si>
-    <t>Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
-  </si>
-  <si>
-    <t>Алкогольное меню</t>
-  </si>
-  <si>
-    <t>Алкогольные напитки</t>
-  </si>
-  <si>
-    <t>Красные вина</t>
-  </si>
-  <si>
-    <t>Для романтичного вечера</t>
-  </si>
-  <si>
-    <t>Шемен де Пап ля Ноблесс</t>
-  </si>
-  <si>
-    <t>Вино красное — фруктовое, среднетелое, выдержанное в дубе</t>
-  </si>
-  <si>
-    <t>Рипароссо Монтепульчано</t>
-  </si>
-  <si>
-    <t>Вино красное, сухое</t>
-  </si>
-  <si>
-    <t>Кьянти, Серристори</t>
-  </si>
-  <si>
-    <t>Вино красное — элегантное, комплексное, не выдержанное в дубе</t>
-  </si>
-  <si>
-    <t>Виски</t>
-  </si>
-  <si>
-    <t>Для интересных бесед</t>
-  </si>
-  <si>
-    <t>Джемисон</t>
-  </si>
-  <si>
-    <t>Классический купажированный виски, проходящий 4-хлетнюю выдержку в дубовых бочках</t>
-  </si>
-  <si>
-    <t>Джек Дэниелс</t>
-  </si>
-  <si>
-    <t>Характерен мягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
-  </si>
-  <si>
-    <t>Чивас Ригал</t>
-  </si>
-  <si>
-    <t>Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
-  </si>
-  <si>
-    <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
   </si>
 </sst>
 </file>
@@ -187,26 +241,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,292 +482,293 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="77.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="77.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="4">
         <v>182.99</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>35</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="4">
         <v>215.36</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="F5" s="4">
         <v>265.57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>166.47</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>168.25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>132.88</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>2700.79</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>3100.33</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>1850.42</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>420.78</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>440.11</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>520.08000000000004</v>
       </c>
     </row>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -479,10 +479,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -496,7 +496,7 @@
     <col min="7" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -510,7 +510,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>36</v>
@@ -524,7 +524,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
@@ -539,8 +539,11 @@
       <c r="F3" s="4">
         <v>182.99</v>
       </c>
+      <c r="G3" s="5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+    <row r="4" spans="1:7" ht="16.5" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
@@ -556,7 +559,7 @@
         <v>215.36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="6" t="s">
@@ -572,7 +575,7 @@
         <v>265.57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>37</v>
@@ -586,7 +589,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -602,7 +605,7 @@
         <v>166.47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -618,7 +621,7 @@
         <v>168.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -633,8 +636,11 @@
       <c r="F9" s="4">
         <v>132.88</v>
       </c>
+      <c r="G9" s="5">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
@@ -648,7 +654,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>39</v>
@@ -662,7 +668,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6" t="s">
@@ -677,8 +683,11 @@
       <c r="F12" s="4">
         <v>2700.79</v>
       </c>
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="6" t="s">
@@ -693,8 +702,11 @@
       <c r="F13" s="4">
         <v>3100.33</v>
       </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="6" t="s">
@@ -710,7 +722,7 @@
         <v>1850.42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>40</v>
@@ -724,7 +736,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -482,7 +482,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -700,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="4">
-        <v>3100.33</v>
+        <v>3123.33</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
